--- a/Top 100 GUM with owner.xlsx
+++ b/Top 100 GUM with owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE4B54-15B1-374B-BE6E-DD7C9AC02EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B0E1E-BF18-7847-89C6-99B159BDB89D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 100 GUM" sheetId="1" r:id="rId1"/>
@@ -787,9 +787,6 @@
     <t>Frankford Candy &amp; Chocolate Company</t>
   </si>
   <si>
-    <t>Perfetti Van Melle Group</t>
-  </si>
-  <si>
     <t>Verve</t>
   </si>
   <si>
@@ -893,6 +890,9 @@
   </si>
   <si>
     <t>Sherwood Brands, Inc.</t>
+  </si>
+  <si>
+    <t>Perfetti Van Melle</t>
   </si>
 </sst>
 </file>
@@ -1744,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1781,16 +1781,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1798,16 +1798,16 @@
         <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1815,16 +1815,16 @@
         <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1832,16 +1832,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1883,16 +1883,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2309,16 +2309,16 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2377,16 +2377,16 @@
         <v>216</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2394,16 +2394,16 @@
         <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2411,16 +2411,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2513,16 +2513,16 @@
         <v>187</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2957,16 +2957,16 @@
         <v>200</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2974,16 +2974,16 @@
         <v>128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3212,16 +3212,16 @@
         <v>193</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3229,16 +3229,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3246,16 +3246,16 @@
         <v>231</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3263,16 +3263,16 @@
         <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3314,16 +3314,16 @@
         <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3331,16 +3331,16 @@
         <v>227</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3348,16 +3348,16 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3365,16 +3365,16 @@
         <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3382,16 +3382,16 @@
         <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3399,16 +3399,16 @@
         <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3416,16 +3416,16 @@
         <v>113</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3433,16 +3433,16 @@
         <v>13</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3450,16 +3450,16 @@
         <v>152</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3467,16 +3467,16 @@
         <v>160</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3484,16 +3484,16 @@
         <v>71</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3552,84 +3552,84 @@
         <v>223</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>255</v>
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>255</v>
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" t="s">
+        <v>290</v>
+      </c>
+      <c r="D108" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>255</v>
+      <c r="B109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" t="s">
+        <v>290</v>
+      </c>
+      <c r="E109" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>255</v>
+      <c r="B110" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3637,16 +3637,16 @@
         <v>209</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3671,16 +3671,16 @@
         <v>92</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3688,16 +3688,16 @@
         <v>107</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3705,16 +3705,16 @@
         <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3722,16 +3722,16 @@
         <v>174</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3739,16 +3739,16 @@
         <v>206</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3756,16 +3756,16 @@
         <v>190</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3773,16 +3773,16 @@
         <v>135</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3790,16 +3790,16 @@
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3858,16 +3858,16 @@
         <v>196</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3926,16 +3926,16 @@
         <v>180</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3943,16 +3943,16 @@
         <v>56</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3960,16 +3960,16 @@
         <v>194</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3977,16 +3977,16 @@
         <v>14</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4419,16 +4419,16 @@
         <v>27</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4436,16 +4436,16 @@
         <v>210</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4453,16 +4453,16 @@
         <v>171</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4470,16 +4470,16 @@
         <v>90</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4487,16 +4487,16 @@
         <v>81</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4504,16 +4504,16 @@
         <v>98</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4521,16 +4521,16 @@
         <v>23</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4538,16 +4538,16 @@
         <v>32</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4555,16 +4555,16 @@
         <v>195</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4572,16 +4572,16 @@
         <v>51</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4589,16 +4589,16 @@
         <v>124</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4606,16 +4606,16 @@
         <v>159</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4623,16 +4623,16 @@
         <v>95</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4640,16 +4640,16 @@
         <v>150</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4657,16 +4657,16 @@
         <v>212</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4674,16 +4674,16 @@
         <v>145</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4691,16 +4691,16 @@
         <v>109</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4708,16 +4708,16 @@
         <v>149</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4725,16 +4725,16 @@
         <v>139</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4742,16 +4742,16 @@
         <v>170</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4759,16 +4759,16 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4776,16 +4776,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4793,16 +4793,16 @@
         <v>55</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4810,16 +4810,16 @@
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4827,16 +4827,16 @@
         <v>80</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4844,16 +4844,16 @@
         <v>137</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4861,16 +4861,16 @@
         <v>106</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4878,16 +4878,16 @@
         <v>42</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4895,16 +4895,16 @@
         <v>50</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4912,16 +4912,16 @@
         <v>41</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4929,16 +4929,16 @@
         <v>38</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4946,16 +4946,16 @@
         <v>12</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4963,16 +4963,16 @@
         <v>75</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4980,16 +4980,16 @@
         <v>6</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4997,16 +4997,16 @@
         <v>31</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5014,16 +5014,16 @@
         <v>142</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5031,16 +5031,16 @@
         <v>199</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5048,16 +5048,16 @@
         <v>202</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5694,16 +5694,16 @@
         <v>133</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
